--- a/Jashera 2024/Jashera_2024.xlsx
+++ b/Jashera 2024/Jashera_2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144" firstSheet="7" activeTab="9"/>
+    <workbookView windowWidth="22188" windowHeight="8700" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Информация для бумаг" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="689">
   <si>
     <t xml:space="preserve">Список участников Весенней полевой практики </t>
   </si>
@@ -2039,6 +2039,9 @@
   </si>
   <si>
     <t>Ок</t>
+  </si>
+  <si>
+    <t>At! Надо попробовать соединить тент Sh3 c низом Sh1</t>
   </si>
   <si>
     <t>Батон, г</t>
@@ -5231,7 +5234,7 @@
   <sheetPr/>
   <dimension ref="A1:AQ1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -13951,7 +13954,6 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22"/>
       <c r="I22">
         <v>1</v>
       </c>
@@ -14819,9 +14821,9 @@
   </sheetData>
   <autoFilter ref="A1:I34">
     <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -14833,10 +14835,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -14988,6 +14990,11 @@
       </c>
       <c r="D11" t="s">
         <v>640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -15019,141 +15026,141 @@
   <sheetData>
     <row r="1" spans="3:44">
       <c r="C1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Q1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="R1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="S1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="U1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="V1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="W1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="X1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Y1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Z1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AA1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AB1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AC1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AD1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AE1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AF1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AH1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AI1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AJ1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AK1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AL1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AM1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AN1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AO1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AP1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AQ1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B2" s="1">
         <v>45413</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D2">
         <v>800</v>
@@ -15170,7 +15177,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B3" s="1">
         <v>45413</v>
@@ -15178,7 +15185,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B4" s="1">
         <v>45414</v>
@@ -15186,7 +15193,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B5" s="1">
         <v>45414</v>
@@ -15194,7 +15201,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B6" s="1">
         <v>45414</v>
@@ -15202,7 +15209,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B7" s="1">
         <v>45415</v>
@@ -15210,7 +15217,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B8" s="1">
         <v>45415</v>
@@ -15218,7 +15225,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B9" s="1">
         <v>45415</v>
@@ -15226,7 +15233,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B10" s="1">
         <v>45416</v>
@@ -15234,7 +15241,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B11" s="1">
         <v>45416</v>
@@ -15242,7 +15249,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B13" s="1">
         <v>45421</v>
@@ -15250,7 +15257,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B14" s="1">
         <v>45421</v>
@@ -15258,7 +15265,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B15" s="1">
         <v>45422</v>
@@ -15266,7 +15273,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B16" s="1">
         <v>45422</v>
@@ -15274,7 +15281,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B17" s="1">
         <v>45422</v>
@@ -15282,7 +15289,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B18" s="1">
         <v>45423</v>
@@ -15290,7 +15297,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B19" s="1">
         <v>45423</v>
@@ -15298,7 +15305,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B20" s="1">
         <v>45423</v>
@@ -15306,7 +15313,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B21" s="1">
         <v>45424</v>
@@ -15314,7 +15321,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B22" s="1">
         <v>45424</v>

--- a/Jashera 2024/Jashera_2024.xlsx
+++ b/Jashera 2024/Jashera_2024.xlsx
@@ -5575,7 +5575,7 @@
   <dimension ref="A1:AQ1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -6117,7 +6117,9 @@
       <c r="I6" s="15">
         <v>1</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="15">
+        <v>8600</v>
+      </c>
       <c r="K6" s="15">
         <v>16730716672</v>
       </c>
@@ -6212,7 +6214,9 @@
       <c r="I7" s="15">
         <v>1</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="15">
+        <v>8600</v>
+      </c>
       <c r="K7" s="15">
         <v>19568134617</v>
       </c>
@@ -7578,7 +7582,9 @@
       <c r="I21" s="15">
         <v>1</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="15">
+        <v>8600</v>
+      </c>
       <c r="K21" s="15">
         <v>20890644576</v>
       </c>
@@ -7872,7 +7878,9 @@
       <c r="I24" s="15">
         <v>1</v>
       </c>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>8600</v>
+      </c>
       <c r="K24" s="15">
         <v>16482234067</v>
       </c>
@@ -15163,9 +15171,9 @@
   </sheetData>
   <autoFilter ref="A1:I34">
     <filterColumn colId="5">
-      <filters>
-        <filter val="1"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>

--- a/Jashera 2024/Jashera_2024.xlsx
+++ b/Jashera 2024/Jashera_2024.xlsx
@@ -5575,7 +5575,7 @@
   <dimension ref="A1:AQ1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -5925,7 +5925,9 @@
       <c r="I4" s="15">
         <v>1</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="15">
+        <v>8000</v>
+      </c>
       <c r="K4" s="15" t="s">
         <v>379</v>
       </c>

--- a/Jashera 2024/Jashera_2024.xlsx
+++ b/Jashera 2024/Jashera_2024.xlsx
@@ -5575,7 +5575,7 @@
   <dimension ref="A1:AQ1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -6699,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="15">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>440</v>

--- a/Jashera 2024/Jashera_2024.xlsx
+++ b/Jashera 2024/Jashera_2024.xlsx
@@ -5575,7 +5575,7 @@
   <dimension ref="A1:AQ1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
